--- a/公司避坑.xlsx
+++ b/公司避坑.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanshuangxi\Documents\重构项目\FD重构相关\hefei-996ICU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC849135-68FB-48F8-ABEB-39448D688CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40E48CD-8697-437F-898C-B7B019FE1ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="684" windowWidth="20760" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7395" yWindow="1260" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$141</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="317">
   <si>
     <t>合肥公司避坑</t>
   </si>
@@ -1067,6 +1070,17 @@
   </si>
   <si>
     <t>面试压工资(比如你要10k，老板给你开9k剩下的1k年底年终奖发给你，这样你还是10k)，社保合肥最低，没有公积金。需要长时间短期(一周)出差办公，报销时间长，且合同不签本公司，签到老板名下的其他公司（这也太坑了）</t>
+  </si>
+  <si>
+    <t>安徽富驰</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">垃圾中的战斗机。代码坑爹，都是一些4、5年的老项目。人员流动性大，项目经手的人太多。一句话总结就是很乱，做项目有种心累的感觉。
+没有年终奖，每个月工资会拖到下个月底再发。老板问题太大，把自己当成产品经理了。公司没有中层领导，老板一言堂。
+每次项目来了，都会压缩工期。调休请假竟然是老板审批。报销特别慢…
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1731,23 +1745,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F140"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="53.77734375" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="53.75" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="91.2">
+    <row r="1" spans="1:6" ht="24.75">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.799999999999997">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6">
+    <row r="3" spans="1:6" ht="141.75">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1797,7 +1811,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="409.6">
+    <row r="4" spans="1:6" ht="362.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="265.2">
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
@@ -1825,7 +1839,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="62.4">
+    <row r="6" spans="1:6" ht="17.25">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1837,7 +1851,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="409.6">
+    <row r="7" spans="1:6" ht="327.75">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1851,7 +1865,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" ht="139.19999999999999">
+    <row r="8" spans="1:6" ht="17.25">
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1865,7 +1879,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999">
+    <row r="9" spans="1:6" ht="17.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1889,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="121.8">
+    <row r="10" spans="1:6" ht="17.25">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -1887,7 +1901,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="121.8">
+    <row r="11" spans="1:6" ht="17.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1899,7 +1913,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999">
+    <row r="12" spans="1:6" ht="17.25">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
@@ -1909,7 +1923,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="278.39999999999998">
+    <row r="13" spans="1:6" ht="34.5">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1935,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="327.60000000000002">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -1933,7 +1947,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="409.6">
+    <row r="15" spans="1:6" ht="94.5">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1947,7 +1961,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999">
+    <row r="16" spans="1:6" ht="17.25">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -1957,7 +1971,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" ht="409.6">
+    <row r="17" spans="1:6" ht="69">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1971,7 +1985,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="409.6">
+    <row r="18" spans="1:6" ht="69">
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1983,7 +1997,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="409.6">
+    <row r="19" spans="1:6" ht="110.25">
       <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
@@ -1999,7 +2013,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="409.6">
+    <row r="20" spans="1:6" ht="86.25">
       <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
@@ -2013,7 +2027,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="261">
+    <row r="21" spans="1:6" ht="34.5">
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
@@ -2027,7 +2041,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999">
+    <row r="22" spans="1:6" ht="17.25">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
@@ -2037,7 +2051,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="330.6">
+    <row r="23" spans="1:6" ht="51.75">
       <c r="A23" s="17" t="s">
         <v>55</v>
       </c>
@@ -2049,7 +2063,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="409.6">
+    <row r="24" spans="1:6" ht="393.75">
       <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2065,7 +2079,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="208.8">
+    <row r="25" spans="1:6" ht="34.5">
       <c r="A25" s="21" t="s">
         <v>61</v>
       </c>
@@ -2077,7 +2091,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="139.19999999999999">
+    <row r="26" spans="1:6" ht="17.25">
       <c r="A26" s="8" t="s">
         <v>63</v>
       </c>
@@ -2089,7 +2103,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="261">
+    <row r="27" spans="1:6" ht="34.5">
       <c r="A27" s="17" t="s">
         <v>65</v>
       </c>
@@ -2101,7 +2115,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="409.6">
+    <row r="28" spans="1:6" ht="86.25">
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
@@ -2115,7 +2129,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="409.6">
+    <row r="29" spans="1:6" ht="51.75">
       <c r="A29" s="8" t="s">
         <v>70</v>
       </c>
@@ -2129,7 +2143,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="261">
+    <row r="30" spans="1:6" ht="34.5">
       <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
@@ -2141,7 +2155,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="295.8">
+    <row r="31" spans="1:6" ht="51.75">
       <c r="A31" s="8" t="s">
         <v>75</v>
       </c>
@@ -2157,7 +2171,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="121.8">
+    <row r="32" spans="1:6" ht="34.5">
       <c r="A32" s="8" t="s">
         <v>79</v>
       </c>
@@ -2171,7 +2185,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" ht="261">
+    <row r="33" spans="1:6" ht="34.5">
       <c r="A33" s="8" t="s">
         <v>82</v>
       </c>
@@ -2183,7 +2197,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" ht="409.6">
+    <row r="34" spans="1:6" ht="69">
       <c r="A34" s="8" t="s">
         <v>71</v>
       </c>
@@ -2197,7 +2211,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="409.6">
+    <row r="35" spans="1:6" ht="69">
       <c r="A35" s="8" t="s">
         <v>86</v>
       </c>
@@ -2209,7 +2223,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" ht="69.599999999999994">
+    <row r="36" spans="1:6" ht="17.25">
       <c r="A36" s="8" t="s">
         <v>88</v>
       </c>
@@ -2221,7 +2235,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="34.799999999999997">
+    <row r="37" spans="1:6" ht="17.25">
       <c r="A37" s="8" t="s">
         <v>90</v>
       </c>
@@ -2235,7 +2249,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="261">
+    <row r="38" spans="1:6" ht="34.5">
       <c r="A38" s="8" t="s">
         <v>92</v>
       </c>
@@ -2249,7 +2263,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="171.6">
+    <row r="39" spans="1:6" ht="31.5">
       <c r="A39" s="8" t="s">
         <v>95</v>
       </c>
@@ -2261,7 +2275,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" ht="382.8">
+    <row r="40" spans="1:6" ht="86.25">
       <c r="A40" s="8" t="s">
         <v>97</v>
       </c>
@@ -2275,7 +2289,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="409.6">
+    <row r="41" spans="1:6" ht="189">
       <c r="A41" s="8" t="s">
         <v>100</v>
       </c>
@@ -2289,7 +2303,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" ht="382.8">
+    <row r="42" spans="1:6" ht="51.75">
       <c r="A42" s="8" t="s">
         <v>103</v>
       </c>
@@ -2301,7 +2315,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="358.8">
+    <row r="43" spans="1:6" ht="47.25">
       <c r="A43" s="8" t="s">
         <v>105</v>
       </c>
@@ -2313,7 +2327,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" ht="226.2">
+    <row r="44" spans="1:6" ht="34.5">
       <c r="A44" s="8" t="s">
         <v>107</v>
       </c>
@@ -2325,7 +2339,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="348">
+    <row r="45" spans="1:6" ht="51.75">
       <c r="A45" s="8" t="s">
         <v>109</v>
       </c>
@@ -2337,7 +2351,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" ht="409.6">
+    <row r="46" spans="1:6" ht="94.5">
       <c r="A46" s="8" t="s">
         <v>111</v>
       </c>
@@ -2351,7 +2365,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6" ht="409.6">
+    <row r="47" spans="1:6" ht="108.75">
       <c r="A47" s="12" t="s">
         <v>114</v>
       </c>
@@ -2363,7 +2377,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6" ht="409.6">
+    <row r="48" spans="1:6" ht="78.75">
       <c r="A48" s="8" t="s">
         <v>116</v>
       </c>
@@ -2375,7 +2389,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6" ht="191.4">
+    <row r="49" spans="1:6" ht="34.5">
       <c r="A49" s="8" t="s">
         <v>118</v>
       </c>
@@ -2387,7 +2401,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" ht="409.6">
+    <row r="50" spans="1:6" ht="103.5">
       <c r="A50" s="8" t="s">
         <v>120</v>
       </c>
@@ -2399,7 +2413,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" ht="17.399999999999999">
+    <row r="51" spans="1:6" ht="17.25">
       <c r="A51" s="8" t="s">
         <v>122</v>
       </c>
@@ -2409,7 +2423,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6" ht="191.4">
+    <row r="52" spans="1:6" ht="51.75">
       <c r="A52" s="8" t="s">
         <v>123</v>
       </c>
@@ -2421,7 +2435,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" ht="87">
+    <row r="53" spans="1:6" ht="17.25">
       <c r="A53" s="8" t="s">
         <v>125</v>
       </c>
@@ -2433,7 +2447,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="218.4">
+    <row r="54" spans="1:6" ht="31.5">
       <c r="A54" s="8" t="s">
         <v>127</v>
       </c>
@@ -2445,7 +2459,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6" ht="409.6">
+    <row r="55" spans="1:6" ht="86.25">
       <c r="A55" s="8" t="s">
         <v>129</v>
       </c>
@@ -2457,7 +2471,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="1:6" ht="52.2">
+    <row r="56" spans="1:6" ht="17.25">
       <c r="A56" s="9" t="s">
         <v>131</v>
       </c>
@@ -2469,7 +2483,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="1:6" ht="226.2">
+    <row r="57" spans="1:6" ht="86.25">
       <c r="A57" s="8" t="s">
         <v>133</v>
       </c>
@@ -2481,7 +2495,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="1:6" ht="17.399999999999999">
+    <row r="58" spans="1:6" ht="17.25">
       <c r="A58" s="8" t="s">
         <v>135</v>
       </c>
@@ -2493,7 +2507,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="1:6" ht="296.39999999999998">
+    <row r="59" spans="1:6" ht="47.25">
       <c r="A59" s="17" t="s">
         <v>137</v>
       </c>
@@ -2505,7 +2519,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="1:6" ht="156.6">
+    <row r="60" spans="1:6" ht="34.5">
       <c r="A60" s="17" t="s">
         <v>139</v>
       </c>
@@ -2517,7 +2531,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="1:6" ht="17.399999999999999">
+    <row r="61" spans="1:6" ht="17.25">
       <c r="A61" s="12" t="s">
         <v>141</v>
       </c>
@@ -2527,7 +2541,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="1:6" ht="382.8">
+    <row r="62" spans="1:6" ht="51.75">
       <c r="A62" s="12" t="s">
         <v>142</v>
       </c>
@@ -2539,7 +2553,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="1:6" ht="382.8">
+    <row r="63" spans="1:6" ht="51.75">
       <c r="A63" s="12" t="s">
         <v>144</v>
       </c>
@@ -2551,7 +2565,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="1:6" ht="62.4">
+    <row r="64" spans="1:6" ht="17.25">
       <c r="A64" s="12" t="s">
         <v>146</v>
       </c>
@@ -2565,7 +2579,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="1:6" ht="191.4">
+    <row r="65" spans="1:6" ht="34.5">
       <c r="A65" s="12" t="s">
         <v>149</v>
       </c>
@@ -2579,7 +2593,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="1:6" ht="280.8">
+    <row r="66" spans="1:6" ht="31.5">
       <c r="A66" s="12" t="s">
         <v>152</v>
       </c>
@@ -2591,7 +2605,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="1:6" ht="409.6">
+    <row r="67" spans="1:6" ht="66">
       <c r="A67" s="26" t="s">
         <v>154</v>
       </c>
@@ -2605,7 +2619,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="1:6" ht="208.8">
+    <row r="68" spans="1:6" ht="34.5">
       <c r="A68" s="12" t="s">
         <v>157</v>
       </c>
@@ -2617,7 +2631,7 @@
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="1:6" ht="17.399999999999999">
+    <row r="69" spans="1:6" ht="17.25">
       <c r="A69" s="12" t="s">
         <v>159</v>
       </c>
@@ -2627,7 +2641,7 @@
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="1:6" ht="409.6">
+    <row r="70" spans="1:6" ht="86.25">
       <c r="A70" s="12" t="s">
         <v>160</v>
       </c>
@@ -2639,7 +2653,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="1:6" ht="208.8">
+    <row r="71" spans="1:6" ht="34.5">
       <c r="A71" s="12" t="s">
         <v>162</v>
       </c>
@@ -2651,7 +2665,7 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="1:6" ht="17.399999999999999">
+    <row r="72" spans="1:6" ht="17.25">
       <c r="A72" s="12" t="s">
         <v>164</v>
       </c>
@@ -2663,7 +2677,7 @@
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="1:6" ht="17.399999999999999">
+    <row r="73" spans="1:6" ht="17.25">
       <c r="A73" s="12" t="s">
         <v>165</v>
       </c>
@@ -2673,7 +2687,7 @@
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="1:6" ht="17.399999999999999">
+    <row r="74" spans="1:6" ht="17.25">
       <c r="A74" s="12" t="s">
         <v>166</v>
       </c>
@@ -2683,7 +2697,7 @@
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
     </row>
-    <row r="75" spans="1:6" ht="409.6">
+    <row r="75" spans="1:6" ht="120.75">
       <c r="A75" s="12" t="s">
         <v>167</v>
       </c>
@@ -2695,7 +2709,7 @@
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" spans="1:6" ht="17.399999999999999">
+    <row r="76" spans="1:6" ht="17.25">
       <c r="A76" s="12" t="s">
         <v>169</v>
       </c>
@@ -2705,7 +2719,7 @@
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" spans="1:6" ht="409.6">
+    <row r="77" spans="1:6" ht="69">
       <c r="A77" s="12" t="s">
         <v>170</v>
       </c>
@@ -2717,7 +2731,7 @@
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
     </row>
-    <row r="78" spans="1:6" ht="218.4">
+    <row r="78" spans="1:6" ht="31.5">
       <c r="A78" s="12" t="s">
         <v>172</v>
       </c>
@@ -2731,7 +2745,7 @@
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
     </row>
-    <row r="79" spans="1:6" ht="243.6">
+    <row r="79" spans="1:6" ht="51.75">
       <c r="A79" s="12" t="s">
         <v>175</v>
       </c>
@@ -2743,7 +2757,7 @@
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
     </row>
-    <row r="80" spans="1:6" ht="156.6">
+    <row r="80" spans="1:6" ht="17.25">
       <c r="A80" s="12" t="s">
         <v>177</v>
       </c>
@@ -2757,7 +2771,7 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
     </row>
-    <row r="81" spans="1:6" ht="409.6">
+    <row r="81" spans="1:6" ht="51.75">
       <c r="A81" s="12" t="s">
         <v>180</v>
       </c>
@@ -2771,7 +2785,7 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
     </row>
-    <row r="82" spans="1:6" ht="261">
+    <row r="82" spans="1:6" ht="34.5">
       <c r="A82" s="12" t="s">
         <v>183</v>
       </c>
@@ -2785,7 +2799,7 @@
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
     </row>
-    <row r="83" spans="1:6" ht="121.8">
+    <row r="83" spans="1:6" ht="17.25">
       <c r="A83" s="12" t="s">
         <v>186</v>
       </c>
@@ -2797,7 +2811,7 @@
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
     </row>
-    <row r="84" spans="1:6" ht="87">
+    <row r="84" spans="1:6" ht="17.25">
       <c r="A84" s="32" t="s">
         <v>188</v>
       </c>
@@ -2809,7 +2823,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" ht="295.8">
+    <row r="85" spans="1:6" ht="34.5">
       <c r="A85" s="12" t="s">
         <v>190</v>
       </c>
@@ -2821,7 +2835,7 @@
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
     </row>
-    <row r="86" spans="1:6" ht="226.2">
+    <row r="86" spans="1:6" ht="34.5">
       <c r="A86" s="12" t="s">
         <v>192</v>
       </c>
@@ -2833,7 +2847,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" ht="218.4">
+    <row r="87" spans="1:6" ht="31.5">
       <c r="A87" s="13" t="s">
         <v>194</v>
       </c>
@@ -2847,7 +2861,7 @@
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
     </row>
-    <row r="88" spans="1:6" ht="69.599999999999994">
+    <row r="88" spans="1:6" ht="17.25">
       <c r="A88" s="12" t="s">
         <v>197</v>
       </c>
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="295.8">
+    <row r="89" spans="1:6" ht="34.5">
       <c r="A89" s="12" t="s">
         <v>201</v>
       </c>
@@ -2875,7 +2889,7 @@
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6" ht="409.6">
+    <row r="90" spans="1:6" ht="120.75">
       <c r="A90" s="12" t="s">
         <v>203</v>
       </c>
@@ -2889,7 +2903,7 @@
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
     </row>
-    <row r="91" spans="1:6" ht="330.6">
+    <row r="91" spans="1:6" ht="51.75">
       <c r="A91" s="12" t="s">
         <v>206</v>
       </c>
@@ -2903,7 +2917,7 @@
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
     </row>
-    <row r="92" spans="1:6" ht="17.399999999999999">
+    <row r="92" spans="1:6" ht="17.25">
       <c r="A92" s="12" t="s">
         <v>209</v>
       </c>
@@ -2913,7 +2927,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="409.6">
+    <row r="93" spans="1:6" ht="51.75">
       <c r="A93" s="12" t="s">
         <v>210</v>
       </c>
@@ -2927,7 +2941,7 @@
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
     </row>
-    <row r="94" spans="1:6" ht="295.8">
+    <row r="94" spans="1:6" ht="51.75">
       <c r="A94" s="12" t="s">
         <v>212</v>
       </c>
@@ -2939,7 +2953,7 @@
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
     </row>
-    <row r="95" spans="1:6" ht="34.799999999999997">
+    <row r="95" spans="1:6" ht="17.25">
       <c r="A95" s="12" t="s">
         <v>214</v>
       </c>
@@ -2951,7 +2965,7 @@
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
     </row>
-    <row r="96" spans="1:6" ht="109.2">
+    <row r="96" spans="1:6" ht="17.25">
       <c r="A96" s="12" t="s">
         <v>216</v>
       </c>
@@ -2965,7 +2979,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="409.6">
+    <row r="97" spans="1:6" ht="162">
       <c r="A97" s="12" t="s">
         <v>219</v>
       </c>
@@ -2979,7 +2993,7 @@
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
     </row>
-    <row r="98" spans="1:6" ht="409.6">
+    <row r="98" spans="1:6" ht="51.75">
       <c r="A98" s="12" t="s">
         <v>222</v>
       </c>
@@ -2993,7 +3007,7 @@
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
     </row>
-    <row r="99" spans="1:6" ht="121.8">
+    <row r="99" spans="1:6" ht="17.25">
       <c r="A99" s="12" t="s">
         <v>225</v>
       </c>
@@ -3007,7 +3021,7 @@
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="1:6" ht="409.6">
+    <row r="100" spans="1:6" ht="69">
       <c r="A100" s="12" t="s">
         <v>228</v>
       </c>
@@ -3021,7 +3035,7 @@
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
     </row>
-    <row r="101" spans="1:6" ht="208.8">
+    <row r="101" spans="1:6" ht="34.5">
       <c r="A101" s="12" t="s">
         <v>231</v>
       </c>
@@ -3033,7 +3047,7 @@
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
     </row>
-    <row r="102" spans="1:6" ht="52.2">
+    <row r="102" spans="1:6" ht="17.25">
       <c r="A102" s="12" t="s">
         <v>233</v>
       </c>
@@ -3045,7 +3059,7 @@
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
     </row>
-    <row r="103" spans="1:6" ht="208.8">
+    <row r="103" spans="1:6" ht="34.5">
       <c r="A103" s="12" t="s">
         <v>235</v>
       </c>
@@ -3059,7 +3073,7 @@
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
     </row>
-    <row r="104" spans="1:6" ht="139.19999999999999">
+    <row r="104" spans="1:6" ht="17.25">
       <c r="A104" s="12" t="s">
         <v>238</v>
       </c>
@@ -3071,7 +3085,7 @@
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
     </row>
-    <row r="105" spans="1:6" ht="278.39999999999998">
+    <row r="105" spans="1:6" ht="51.75">
       <c r="A105" s="26" t="s">
         <v>240</v>
       </c>
@@ -3083,7 +3097,7 @@
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
     </row>
-    <row r="106" spans="1:6" ht="17.399999999999999">
+    <row r="106" spans="1:6" ht="17.25">
       <c r="A106" s="12" t="s">
         <v>242</v>
       </c>
@@ -3095,7 +3109,7 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" ht="17.399999999999999">
+    <row r="107" spans="1:6" ht="17.25">
       <c r="A107" s="12" t="s">
         <v>244</v>
       </c>
@@ -3105,7 +3119,7 @@
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6" ht="409.6">
+    <row r="108" spans="1:6" ht="69">
       <c r="A108" s="12"/>
       <c r="B108" s="26" t="s">
         <v>245</v>
@@ -3117,7 +3131,7 @@
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
     </row>
-    <row r="109" spans="1:6" ht="104.4">
+    <row r="109" spans="1:6" ht="17.25">
       <c r="A109" s="12" t="s">
         <v>247</v>
       </c>
@@ -3129,7 +3143,7 @@
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
     </row>
-    <row r="110" spans="1:6" ht="17.399999999999999">
+    <row r="110" spans="1:6" ht="17.25">
       <c r="A110" s="12" t="s">
         <v>249</v>
       </c>
@@ -3139,7 +3153,7 @@
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
     </row>
-    <row r="111" spans="1:6" ht="174">
+    <row r="111" spans="1:6" ht="34.5">
       <c r="A111" s="12" t="s">
         <v>250</v>
       </c>
@@ -3151,7 +3165,7 @@
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
     </row>
-    <row r="112" spans="1:6" ht="93.6">
+    <row r="112" spans="1:6" ht="17.25">
       <c r="A112" s="12" t="s">
         <v>252</v>
       </c>
@@ -3163,7 +3177,7 @@
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
     </row>
-    <row r="113" spans="1:6" ht="174">
+    <row r="113" spans="1:6" ht="34.5">
       <c r="A113" s="13" t="s">
         <v>254</v>
       </c>
@@ -3175,7 +3189,7 @@
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
     </row>
-    <row r="114" spans="1:6" ht="409.6">
+    <row r="114" spans="1:6" ht="189">
       <c r="A114" s="12" t="s">
         <v>256</v>
       </c>
@@ -3189,7 +3203,7 @@
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
     </row>
-    <row r="115" spans="1:6" ht="409.6">
+    <row r="115" spans="1:6" ht="51.75">
       <c r="A115" s="12" t="s">
         <v>259</v>
       </c>
@@ -3201,7 +3215,7 @@
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
     </row>
-    <row r="116" spans="1:6" ht="218.4">
+    <row r="116" spans="1:6" ht="31.5">
       <c r="A116" s="12" t="s">
         <v>261</v>
       </c>
@@ -3213,7 +3227,7 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
     </row>
-    <row r="117" spans="1:6" ht="400.2">
+    <row r="117" spans="1:6" ht="51.75">
       <c r="A117" s="12" t="s">
         <v>263</v>
       </c>
@@ -3225,7 +3239,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" ht="295.8">
+    <row r="118" spans="1:6" ht="34.5">
       <c r="A118" s="12" t="s">
         <v>265</v>
       </c>
@@ -3237,7 +3251,7 @@
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
     </row>
-    <row r="119" spans="1:6" ht="409.6">
+    <row r="119" spans="1:6" ht="126">
       <c r="A119" s="12" t="s">
         <v>267</v>
       </c>
@@ -3251,7 +3265,7 @@
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
     </row>
-    <row r="120" spans="1:6" ht="52.2">
+    <row r="120" spans="1:6" ht="17.25">
       <c r="A120" s="12" t="s">
         <v>270</v>
       </c>
@@ -3263,7 +3277,7 @@
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
     </row>
-    <row r="121" spans="1:6" ht="226.2">
+    <row r="121" spans="1:6" ht="34.5">
       <c r="A121" s="12" t="s">
         <v>272</v>
       </c>
@@ -3275,7 +3289,7 @@
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
     </row>
-    <row r="122" spans="1:6" ht="409.6">
+    <row r="122" spans="1:6" ht="155.25">
       <c r="A122" s="12" t="s">
         <v>274</v>
       </c>
@@ -3289,7 +3303,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" ht="121.8">
+    <row r="123" spans="1:6" ht="17.25">
       <c r="A123" s="12" t="s">
         <v>277</v>
       </c>
@@ -3301,7 +3315,7 @@
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
     </row>
-    <row r="124" spans="1:6" ht="17.399999999999999">
+    <row r="124" spans="1:6" ht="17.25">
       <c r="A124" s="12" t="s">
         <v>279</v>
       </c>
@@ -3311,7 +3325,7 @@
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
     </row>
-    <row r="125" spans="1:6" ht="409.6">
+    <row r="125" spans="1:6" ht="51.75">
       <c r="A125" s="12" t="s">
         <v>280</v>
       </c>
@@ -3325,7 +3339,7 @@
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
     </row>
-    <row r="126" spans="1:6" ht="409.6">
+    <row r="126" spans="1:6" ht="103.5">
       <c r="A126" s="12" t="s">
         <v>283</v>
       </c>
@@ -3341,7 +3355,7 @@
       </c>
       <c r="F126" s="12"/>
     </row>
-    <row r="127" spans="1:6" ht="208.8">
+    <row r="127" spans="1:6" ht="34.5">
       <c r="A127" s="12" t="s">
         <v>286</v>
       </c>
@@ -3355,7 +3369,7 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="1:6" ht="31.2">
+    <row r="128" spans="1:6" ht="17.25">
       <c r="A128" s="12" t="s">
         <v>289</v>
       </c>
@@ -3367,7 +3381,7 @@
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
     </row>
-    <row r="129" spans="1:6" ht="69.599999999999994">
+    <row r="129" spans="1:6" ht="17.25">
       <c r="A129" s="12" t="s">
         <v>291</v>
       </c>
@@ -3379,7 +3393,7 @@
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
     </row>
-    <row r="130" spans="1:6" ht="139.19999999999999">
+    <row r="130" spans="1:6" ht="17.25">
       <c r="A130" s="13" t="s">
         <v>293</v>
       </c>
@@ -3391,7 +3405,7 @@
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
     </row>
-    <row r="131" spans="1:6" ht="121.8">
+    <row r="131" spans="1:6" ht="17.25">
       <c r="A131" s="12" t="s">
         <v>295</v>
       </c>
@@ -3405,7 +3419,7 @@
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
     </row>
-    <row r="132" spans="1:6" ht="34.799999999999997">
+    <row r="132" spans="1:6" ht="17.25">
       <c r="A132" s="12" t="s">
         <v>297</v>
       </c>
@@ -3419,7 +3433,7 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
     </row>
-    <row r="133" spans="1:6" ht="17.399999999999999">
+    <row r="133" spans="1:6" ht="17.25">
       <c r="A133" s="12" t="s">
         <v>299</v>
       </c>
@@ -3429,7 +3443,7 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
     </row>
-    <row r="134" spans="1:6" ht="409.6">
+    <row r="134" spans="1:6" ht="86.25">
       <c r="A134" s="12" t="s">
         <v>300</v>
       </c>
@@ -3441,7 +3455,7 @@
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
     </row>
-    <row r="135" spans="1:6" ht="409.6">
+    <row r="135" spans="1:6" ht="204.75">
       <c r="A135" s="12" t="s">
         <v>302</v>
       </c>
@@ -3455,7 +3469,7 @@
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
     </row>
-    <row r="136" spans="1:6" ht="17.399999999999999">
+    <row r="136" spans="1:6" ht="17.25">
       <c r="A136" s="12" t="s">
         <v>305</v>
       </c>
@@ -3465,7 +3479,7 @@
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
     </row>
-    <row r="137" spans="1:6" ht="124.8">
+    <row r="137" spans="1:6" ht="17.25">
       <c r="A137" s="12" t="s">
         <v>306</v>
       </c>
@@ -3479,7 +3493,7 @@
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
     </row>
-    <row r="138" spans="1:6" ht="409.6">
+    <row r="138" spans="1:6" ht="126">
       <c r="A138" s="12" t="s">
         <v>309</v>
       </c>
@@ -3493,7 +3507,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6" ht="17.399999999999999">
+    <row r="139" spans="1:6" ht="17.25">
       <c r="A139" s="12" t="s">
         <v>312</v>
       </c>
@@ -3503,7 +3517,7 @@
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
     </row>
-    <row r="140" spans="1:6" ht="409.6">
+    <row r="140" spans="1:6" ht="63">
       <c r="A140" s="12" t="s">
         <v>313</v>
       </c>
@@ -3515,7 +3529,20 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
+    <row r="141" spans="1:6" ht="143.25" customHeight="1">
+      <c r="A141" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B141" s="26"/>
+      <c r="C141" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D141" s="26"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:F141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
